--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter04/CreateStyle_04_02.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter04/CreateStyle_04_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B71A3-40CE-477E-8E9E-32D73D166E55}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E31D4-A848-43E2-8123-4F5961F47753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="253">
   <si>
     <t>OrderNum</t>
   </si>
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,11 +858,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -871,10 +883,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -886,7 +898,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de tabla dinámica 1" table="0" count="2" xr9:uid="{80D21143-6767-431B-8B2D-48100DB1FFDE}">
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4647,7 +4664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D59" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -5004,7 +5021,7 @@
   <dataFields count="1">
     <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="Estilo de tabla dinámica 1" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5023,23 +5040,23 @@
     <sortCondition ref="D1:D275"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{B2635F67-BF90-4DBF-8F83-49BD22B87B81}" name="SKU"/>
     <tableColumn id="6" xr3:uid="{212BE5BE-EE72-4FEF-A648-FA7B4E165F07}" name="ProductName"/>
-    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{B5B19F64-0A61-4C35-A8BD-8503D4E0B8A4}" name="Unit Price"/>
-    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5338,10 +5355,10 @@
   <dimension ref="A3:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -6202,7 +6219,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
